--- a/TabelaParser.xlsx
+++ b/TabelaParser.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Var</t>
   </si>
@@ -783,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI32"/>
+  <dimension ref="A1:AH32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -806,26 +806,24 @@
     <col min="14" max="15" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.6640625" customWidth="1"/>
     <col min="24" max="24" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5" customWidth="1"/>
     <col min="26" max="26" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="3.5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -876,61 +874,58 @@
         <v>14</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="AC1" s="2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
@@ -970,10 +965,9 @@
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="6"/>
-    </row>
-    <row r="3" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH2" s="6"/>
+    </row>
+    <row r="3" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -1011,10 +1005,9 @@
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="6"/>
-    </row>
-    <row r="4" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH3" s="6"/>
+    </row>
+    <row r="4" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>56</v>
       </c>
@@ -1054,10 +1047,9 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="6"/>
-    </row>
-    <row r="5" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH4" s="6"/>
+    </row>
+    <row r="5" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
@@ -1095,10 +1087,9 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="6"/>
-    </row>
-    <row r="6" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH5" s="6"/>
+    </row>
+    <row r="6" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>29</v>
       </c>
@@ -1136,10 +1127,9 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="6"/>
-    </row>
-    <row r="7" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH6" s="6"/>
+    </row>
+    <row r="7" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
@@ -1173,16 +1163,15 @@
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
+      <c r="AF7" s="5">
+        <v>8</v>
+      </c>
       <c r="AG7" s="5">
-        <v>8</v>
-      </c>
-      <c r="AH7" s="5">
         <v>9</v>
       </c>
-      <c r="AI7" s="6"/>
-    </row>
-    <row r="8" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH7" s="6"/>
+    </row>
+    <row r="8" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
@@ -1222,10 +1211,9 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="6"/>
-    </row>
-    <row r="9" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH8" s="6"/>
+    </row>
+    <row r="9" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>31</v>
       </c>
@@ -1271,10 +1259,9 @@
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="6"/>
-    </row>
-    <row r="10" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH9" s="6"/>
+    </row>
+    <row r="10" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>60</v>
       </c>
@@ -1308,10 +1295,10 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5">
+      <c r="R10" s="5">
         <v>13</v>
       </c>
+      <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
@@ -1326,10 +1313,9 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="6"/>
-    </row>
-    <row r="11" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH10" s="6"/>
+    </row>
+    <row r="11" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>32</v>
       </c>
@@ -1375,10 +1361,9 @@
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="6"/>
-    </row>
-    <row r="12" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH11" s="6"/>
+    </row>
+    <row r="12" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -1416,10 +1401,9 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="6"/>
-    </row>
-    <row r="13" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH12" s="6"/>
+    </row>
+    <row r="13" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>34</v>
       </c>
@@ -1457,10 +1441,9 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="6"/>
-    </row>
-    <row r="14" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH13" s="6"/>
+    </row>
+    <row r="14" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>35</v>
       </c>
@@ -1500,10 +1483,9 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="6"/>
-    </row>
-    <row r="15" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH14" s="6"/>
+    </row>
+    <row r="15" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>36</v>
       </c>
@@ -1533,9 +1515,7 @@
       <c r="Q15" s="5">
         <v>24</v>
       </c>
-      <c r="R15" s="5">
-        <v>24</v>
-      </c>
+      <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -1545,16 +1525,17 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
+      <c r="AB15" s="5">
+        <v>24</v>
+      </c>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="6"/>
-    </row>
-    <row r="16" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH15" s="6"/>
+    </row>
+    <row r="16" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
@@ -1592,10 +1573,9 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="6"/>
-    </row>
-    <row r="17" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH16" s="6"/>
+    </row>
+    <row r="17" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>38</v>
       </c>
@@ -1615,10 +1595,10 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5">
+      <c r="R17" s="5">
         <v>26</v>
       </c>
+      <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
@@ -1633,10 +1613,9 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="6"/>
-    </row>
-    <row r="18" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH17" s="6"/>
+    </row>
+    <row r="18" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -1674,10 +1653,9 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="6"/>
-    </row>
-    <row r="19" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH18" s="6"/>
+    </row>
+    <row r="19" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>40</v>
       </c>
@@ -1715,10 +1693,9 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="6"/>
-    </row>
-    <row r="20" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH19" s="6"/>
+    </row>
+    <row r="20" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>41</v>
       </c>
@@ -1748,9 +1725,7 @@
       <c r="Q20" s="5">
         <v>29</v>
       </c>
-      <c r="R20" s="5">
-        <v>29</v>
-      </c>
+      <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
@@ -1760,16 +1735,17 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
+      <c r="AB20" s="5">
+        <v>29</v>
+      </c>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="6"/>
-    </row>
-    <row r="21" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH20" s="6"/>
+    </row>
+    <row r="21" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>42</v>
       </c>
@@ -1801,9 +1777,7 @@
       <c r="Q21" s="5">
         <v>30</v>
       </c>
-      <c r="R21" s="5">
-        <v>30</v>
-      </c>
+      <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -1813,16 +1787,17 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
+      <c r="AB21" s="5">
+        <v>30</v>
+      </c>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="6"/>
-    </row>
-    <row r="22" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH21" s="6"/>
+    </row>
+    <row r="22" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>43</v>
       </c>
@@ -1845,12 +1820,14 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
+      <c r="S22" s="5">
+        <v>31</v>
+      </c>
       <c r="T22" s="5">
         <v>31</v>
       </c>
       <c r="U22" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V22" s="5">
         <v>32</v>
@@ -1867,19 +1844,16 @@
       <c r="Z22" s="5">
         <v>32</v>
       </c>
-      <c r="AA22" s="5">
-        <v>32</v>
-      </c>
+      <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="6"/>
-    </row>
-    <row r="23" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH22" s="6"/>
+    </row>
+    <row r="23" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>44</v>
       </c>
@@ -1909,9 +1883,7 @@
       <c r="Q23" s="5">
         <v>33</v>
       </c>
-      <c r="R23" s="5">
-        <v>33</v>
-      </c>
+      <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -1921,16 +1893,17 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
+      <c r="AB23" s="5">
+        <v>33</v>
+      </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="6"/>
-    </row>
-    <row r="24" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH23" s="6"/>
+    </row>
+    <row r="24" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>62</v>
       </c>
@@ -1953,7 +1926,9 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
+      <c r="S24" s="5">
+        <v>34</v>
+      </c>
       <c r="T24" s="5">
         <v>34</v>
       </c>
@@ -1976,24 +1951,21 @@
         <v>34</v>
       </c>
       <c r="AA24" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB24" s="5">
         <v>35</v>
       </c>
-      <c r="AC24" s="5">
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5">
         <v>35</v>
       </c>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5">
-        <v>35</v>
-      </c>
+      <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="6"/>
-    </row>
-    <row r="25" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH24" s="6"/>
+    </row>
+    <row r="25" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>45</v>
       </c>
@@ -2023,9 +1995,7 @@
       <c r="Q25" s="5">
         <v>36</v>
       </c>
-      <c r="R25" s="5">
-        <v>36</v>
-      </c>
+      <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
@@ -2035,16 +2005,17 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
+      <c r="AB25" s="5">
+        <v>36</v>
+      </c>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="6"/>
-    </row>
-    <row r="26" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH25" s="6"/>
+    </row>
+    <row r="26" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>63</v>
       </c>
@@ -2067,7 +2038,9 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
+      <c r="S26" s="5">
+        <v>37</v>
+      </c>
       <c r="T26" s="5">
         <v>37</v>
       </c>
@@ -2096,24 +2069,21 @@
         <v>37</v>
       </c>
       <c r="AC26" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD26" s="5">
         <v>38</v>
       </c>
       <c r="AE26" s="5">
+        <v>37</v>
+      </c>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="6">
         <v>38</v>
       </c>
-      <c r="AF26" s="5">
-        <v>37</v>
-      </c>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>46</v>
       </c>
@@ -2143,9 +2113,7 @@
       <c r="Q27" s="5">
         <v>40</v>
       </c>
-      <c r="R27" s="5">
-        <v>41</v>
-      </c>
+      <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
@@ -2155,16 +2123,17 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
+      <c r="AB27" s="5">
+        <v>41</v>
+      </c>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="6"/>
-    </row>
-    <row r="28" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH27" s="6"/>
+    </row>
+    <row r="28" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>47</v>
       </c>
@@ -2208,10 +2177,9 @@
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="6"/>
-    </row>
-    <row r="29" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH28" s="6"/>
+    </row>
+    <row r="29" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>48</v>
       </c>
@@ -2234,35 +2202,34 @@
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
+      <c r="U29" s="5">
+        <v>45</v>
+      </c>
       <c r="V29" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W29" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X29" s="5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y29" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z29" s="5">
-        <v>49</v>
-      </c>
-      <c r="AA29" s="5">
         <v>50</v>
       </c>
+      <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="6"/>
-    </row>
-    <row r="30" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH29" s="6"/>
+    </row>
+    <row r="30" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>49</v>
       </c>
@@ -2291,23 +2258,22 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
+      <c r="AA30" s="5">
+        <v>51</v>
+      </c>
       <c r="AB30" s="5">
-        <v>51</v>
-      </c>
-      <c r="AC30" s="5">
         <v>52</v>
       </c>
+      <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5">
+      <c r="AE30" s="5">
         <v>53</v>
       </c>
+      <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="6"/>
-    </row>
-    <row r="31" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH30" s="6"/>
+    </row>
+    <row r="31" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>50</v>
       </c>
@@ -2338,21 +2304,20 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
+      <c r="AC31" s="5">
+        <v>54</v>
+      </c>
       <c r="AD31" s="5">
-        <v>54</v>
-      </c>
-      <c r="AE31" s="5">
         <v>55</v>
       </c>
+      <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
       <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="6">
+      <c r="AH31" s="6">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>13</v>
       </c>
@@ -2392,8 +2357,7 @@
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
-      <c r="AH32" s="7"/>
-      <c r="AI32" s="8"/>
+      <c r="AH32" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/TabelaParser.xlsx
+++ b/TabelaParser.xlsx
@@ -786,7 +786,7 @@
   <dimension ref="A1:AH32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -811,7 +811,7 @@
     <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.6640625" customWidth="1"/>
-    <col min="24" max="24" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5" customWidth="1"/>
     <col min="26" max="26" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="3.83203125" bestFit="1" customWidth="1"/>

--- a/TabelaParser.xlsx
+++ b/TabelaParser.xlsx
@@ -429,8 +429,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -468,9 +470,11 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -785,13 +789,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:AH32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="11" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
